--- a/me/3.Gradle-under-the-hood.xlsx
+++ b/me/3.Gradle-under-the-hood.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C08956-2DF6-43C5-B276-0F6B35941F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBE5D42-5D75-416A-9ECE-D160BC71F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gradle Object Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Gradle Lifecycle" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>構成</t>
   </si>
@@ -132,6 +133,21 @@
   </si>
   <si>
     <t>apply method takes a closure</t>
+  </si>
+  <si>
+    <t>Gradle build has three distinct phases: Initialization, Configuration, Execution</t>
+  </si>
+  <si>
+    <t>instance for each of these projects. This phase maps to one or more build script file</t>
+  </si>
+  <si>
+    <t>①Initialization: Gradle supports both single and muti project builds and during the initialization phase that determines which projects are actually going to take part in the build creates a project</t>
+  </si>
+  <si>
+    <t>②Configuration: Every project needs to build gradle file which contains the build configuration script which gets executed</t>
+  </si>
+  <si>
+    <t>③Execution: This phase is where the actual build gets performed</t>
   </si>
 </sst>
 </file>
@@ -260,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -272,7 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -636,6 +651,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571345D3-6B59-5BF7-0C11-2D4F4551DC61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="1447800"/>
+          <a:ext cx="7772400" cy="4369841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -901,14 +971,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:S139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3"/>
@@ -930,605 +1000,125 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
       <c r="S5" s="6"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
       <c r="S8" s="6"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
       <c r="S22" s="6"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
       <c r="S23" s="6"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -1648,16 +1238,12 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
       <c r="E53" s="6"/>
       <c r="F53" t="s">
         <v>6</v>
@@ -1668,16 +1254,12 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
       <c r="E55" s="6"/>
       <c r="F55" t="s">
         <v>6</v>
@@ -1690,8 +1272,6 @@
       <c r="B56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1703,7 +1283,7 @@
       <c r="E57" s="10"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B93" s="3"/>
@@ -1723,767 +1303,182 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
       <c r="O95" s="6"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
       <c r="O96" s="6"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
       <c r="O97" s="6"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
       <c r="O98" s="6"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
       <c r="O99" s="6"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
       <c r="O100" s="6"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
       <c r="O101" s="6"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
       <c r="O102" s="6"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
       <c r="O103" s="6"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
       <c r="O104" s="6"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
       <c r="O105" s="6"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
-      <c r="M106" s="11"/>
-      <c r="N106" s="11"/>
       <c r="O106" s="6"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
       <c r="O107" s="6"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
       <c r="O108" s="6"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
-      <c r="N109" s="11"/>
       <c r="O109" s="6"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
       <c r="O110" s="6"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
       <c r="O111" s="6"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
       <c r="O112" s="6"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
       <c r="O113" s="6"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
       <c r="O114" s="6"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
       <c r="O115" s="6"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
       <c r="O116" s="6"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
       <c r="O117" s="6"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
       <c r="O118" s="6"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
       <c r="O119" s="6"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
       <c r="O120" s="6"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
       <c r="O121" s="6"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
       <c r="O122" s="6"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="11"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="11"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
-      <c r="N123" s="11"/>
       <c r="O123" s="6"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="11"/>
       <c r="O124" s="6"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="11"/>
       <c r="O125" s="6"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
-      <c r="N126" s="11"/>
       <c r="O126" s="6"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
       <c r="O127" s="6"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
       <c r="O128" s="6"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
       <c r="O129" s="6"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
       <c r="O130" s="6"/>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
       <c r="O131" s="6"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11"/>
       <c r="O132" s="6"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
       <c r="O133" s="6"/>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="11"/>
-      <c r="L134" s="11"/>
-      <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
       <c r="O134" s="6"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="11"/>
-      <c r="N135" s="11"/>
       <c r="O135" s="6"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
       <c r="O136" s="6"/>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="11"/>
-      <c r="L137" s="11"/>
-      <c r="M137" s="11"/>
-      <c r="N137" s="11"/>
       <c r="O137" s="6"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-      <c r="L138" s="11"/>
-      <c r="M138" s="11"/>
-      <c r="N138" s="11"/>
       <c r="O138" s="6"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -2508,4 +1503,45 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB4451-9FDF-4CEE-93B1-D1BDB7125C3E}">
+  <dimension ref="A3:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.Gradle-under-the-hood.xlsx
+++ b/me/3.Gradle-under-the-hood.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBE5D42-5D75-416A-9ECE-D160BC71F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16FAD80-BD77-49BE-A110-B153B26D9E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gradle Object Model" sheetId="1" r:id="rId1"/>
     <sheet name="Gradle Lifecycle" sheetId="2" r:id="rId2"/>
+    <sheet name="Gradle Initialization Phase" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>構成</t>
   </si>
@@ -148,6 +149,126 @@
   </si>
   <si>
     <t>③Execution: This phase is where the actual build gets performed</t>
+  </si>
+  <si>
+    <t>The initialization phase that maps to the init.gradle and settings.gradle file</t>
+  </si>
+  <si>
+    <t>during initialization phase. There scripts run before the actual build starts. There is several good resons for this to allow us to set up various configurations</t>
+  </si>
+  <si>
+    <t>settings.gradle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init.gradle file: We can also have all the files with .gradle extension and they can be located in a specific folder which tells gradle thay they need to be performed </t>
+  </si>
+  <si>
+    <t>settings.gradle: more specific and is oriented towards multi project projects and that is where gradle determine which projects to include in the build</t>
+  </si>
+  <si>
+    <t>Configuration and Execution also rely on build.gradle file</t>
+  </si>
+  <si>
+    <t>C:\Users\vudinhquang\.gradle</t>
+  </si>
+  <si>
+    <t>init.d</t>
+  </si>
+  <si>
+    <t>another.gradle</t>
+  </si>
+  <si>
+    <t>init.gradle</t>
+  </si>
+  <si>
+    <t>zingAnother.gradle</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>C:\Users\vudinhquang\.gradle\init.d\another.gradle</t>
+  </si>
+  <si>
+    <t>println "&gt;&gt;&gt; init.gradle --&gt; This is executed during the initialization phase  - timestamp @ ${gradle.timestamp()}"</t>
+  </si>
+  <si>
+    <t>import java.text.*</t>
+  </si>
+  <si>
+    <t>gradle.ext.timestamp = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   def df = new SimpleDateFormat("yyyy-MM-dd'T'HH:mm:ss'Z'")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   df.setTimeZone(TimeZone.getTimeZone("UTC"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   return df.format(new Date())</t>
+  </si>
+  <si>
+    <t>println "&gt;&gt;&gt; another.gradle --&gt; This is executed during the initialization phase  - timestamp @ ${gradle.timestamp()}"</t>
+  </si>
+  <si>
+    <t>C:\Users\vudinhquang\.gradle\init.d\init.gradle</t>
+  </si>
+  <si>
+    <t>C:\Users\vudinhquang\.gradle\init.d\zingAnother.gradle</t>
+  </si>
+  <si>
+    <t>println "&gt;&gt;&gt; zingAnother.gradle --&gt; This is executed during the initialization phase  - timestamp @ ${gradle.timestamp()}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">executed during the initialization phase. Before go ahead and actually run the build with </t>
+  </si>
+  <si>
+    <t>these three initialization files and they live in special folder init.d in which is the .gradle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home directory. gradle runs over such as this init.d folder, if it exists, it looks any file that </t>
+  </si>
+  <si>
+    <t>.gradle extention</t>
+  </si>
+  <si>
+    <t>Gradle\3.Gradle-under-the-hood\GradleLifeCycleScriptExamples\settings.gradle</t>
+  </si>
+  <si>
+    <t>println "&gt;&gt;&gt; settings.gradle --&gt; This is executed during the initialization phase  - timestamp @ ${gradle.timestamp()}"</t>
+  </si>
+  <si>
+    <t>set timestamp property as closure</t>
+  </si>
+  <si>
+    <r>
+      <t>Runs as order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> init.d -&gt; setting.gradle -&gt; build.gradle</t>
+    </r>
+  </si>
+  <si>
+    <t>gradle object we have access to throught the entire lifecycle</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>println "&gt;&gt;&gt; build.gradle --&gt; This is executed during the configuration phase  - timestamp @ ${gradle.timestamp()}"</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>*/</t>
   </si>
 </sst>
 </file>
@@ -276,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -291,6 +412,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,6 +826,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>68872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C3D33A-C3A1-C908-58B5-5E87836EAF8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="6153150"/>
+          <a:ext cx="7772400" cy="4583722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DEC92C-72ED-A6CD-FEA6-47258D18CEE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="5695950"/>
+          <a:ext cx="4743450" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>532277</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DECE1E2-B6FD-FA7E-0188-1C2C017CC5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="12430125"/>
+          <a:ext cx="8980952" cy="1638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -971,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:S139"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB4451-9FDF-4CEE-93B1-D1BDB7125C3E}">
-  <dimension ref="A3:A7"/>
+  <dimension ref="A3:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,8 +1815,714 @@
         <v>25</v>
       </c>
     </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA13E3DA-3B48-4BFF-A04C-72AA6128C594}">
+  <dimension ref="A3:Q74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="E17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="D22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="L22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="D23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="O31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="10"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="14"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="14"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="14"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="14"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="14"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="14"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="14"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/3.Gradle-under-the-hood.xlsx
+++ b/me/3.Gradle-under-the-hood.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16FAD80-BD77-49BE-A110-B153B26D9E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919B962-D68A-42D8-B595-D5C059686539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gradle Object Model" sheetId="1" r:id="rId1"/>
     <sheet name="Gradle Lifecycle" sheetId="2" r:id="rId2"/>
     <sheet name="Gradle Initialization Phase" sheetId="3" r:id="rId3"/>
+    <sheet name="GradleObjectModeAndGradleObject" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>構成</t>
   </si>
@@ -269,6 +270,222 @@
   </si>
   <si>
     <t>*/</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; build.gradle: $project.gradle.gradleVersion"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; build.gradle: $project.gradle.gradleHomeDir"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; build.gradle: $project.gradle.gradleUserHomeDir"</t>
+  </si>
+  <si>
+    <t>in build.gradle file we are actually accessing the project object</t>
+  </si>
+  <si>
+    <t>gradle(timestamps())</t>
+  </si>
+  <si>
+    <t>code(build.gradle for having Project object as delegate)</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; settings.gradle: $gradle.gradleVersion"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; settings.gradle: $gradle.gradleHomeDir"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; settings.gradle: $gradle.gradleUserHomeDir"</t>
+  </si>
+  <si>
+    <t>   def df = new SimpleDateFormat("yyyy-MM-dd'T'HH:mm:ss'Z'")</t>
+  </si>
+  <si>
+    <t>   df.setTimeZone(TimeZone.getTimeZone("UTC"))</t>
+  </si>
+  <si>
+    <t>   return df.format(new Date())</t>
+  </si>
+  <si>
+    <t>println "&gt;&gt;&gt; another.gradle --&gt; This is executed during the initialization phase  - timestamp @ ${gradle.timestamp()}"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; another.gradle: $gradleVersion"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; another.gradle: $gradleHomeDir"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; another.gradle: $gradleUserHomeDir"</t>
+  </si>
+  <si>
+    <t>println "&gt;&gt;&gt; init.gradle --&gt; This is executed during the initialization phase  - timestamp @ ${gradle.timestamp()}"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; init.gradle: $gradleVersion"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; init.gradle: $gradleHomeDir"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; init.gradle: $gradleUserHomeDir"</t>
+  </si>
+  <si>
+    <t>println "&gt;&gt;&gt; zingAnother.gradle --&gt; This is executed during the initialization phase  - timestamp @ ${gradle.timestamp()}"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; zingAnother.gradle: $gradleVersion"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; zingAnother.gradle: $gradleHomeDir"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; zingAnother.gradle: $gradleUserHomeDir"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we are accessing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delicate object of project(gradle), then the property of</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When we run build.gradle Gradle actually instantiate an object that </t>
+  </si>
+  <si>
+    <t>and methods. We also can access to another object called the delegate</t>
+  </si>
+  <si>
+    <t>delegate can change depending on which part of the build lifecycle we</t>
+  </si>
+  <si>
+    <t>happen to be in. For example we are in the actual configuration phase</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">implements the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface. We can access whole bunch of properties</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and we are working on our build gradle file, delegate to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface</t>
+    </r>
+  </si>
+  <si>
+    <t>So in build.gradle file we can access to Script interface(properties and methods)</t>
+  </si>
+  <si>
+    <t>and we can access to delegate which is Project object(properties and methods)</t>
+  </si>
+  <si>
+    <t>settings.gradle: Can access to Script and Settings object</t>
+  </si>
+  <si>
+    <t>ini.gradle: Can access to Script and Gradle object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">so we do not have to write the full </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>project.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gradle.timestamp() means</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.gradle.org/4.3/dsl/org.gradle.api.invocation.Gradle.html</t>
+  </si>
+  <si>
+    <t>We can write in a shorthand by removing the reference to project:</t>
+  </si>
+  <si>
+    <t>$gradle.gradleVersion</t>
+  </si>
+  <si>
+    <t>$gradle.gradleHomeDir</t>
+  </si>
+  <si>
+    <t>$gradle.gradleUserHomeDir</t>
+  </si>
+  <si>
+    <t>We can remove the reference to delegate object which is Gradle and we can access properties directly</t>
+  </si>
+  <si>
+    <t>We can write in a shorthand by removing the reference to settings:</t>
+  </si>
+  <si>
+    <t>$settings.gradle.gradleVersion</t>
+  </si>
+  <si>
+    <t>$settings.gradle.gradleHomeDir</t>
+  </si>
+  <si>
+    <t>$settings.gradle.gradleUserHomeDir</t>
   </si>
 </sst>
 </file>
@@ -397,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -412,8 +629,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,6 +1199,579 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>162763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D57B6D-FE53-31F6-E3C7-4CFDAE5EFDEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676274" y="14373225"/>
+          <a:ext cx="9458325" cy="4839538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022E2E7B-D0C8-4136-89A4-6F1035501C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="476250"/>
+          <a:ext cx="7772400" cy="4583722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7253751-B16F-AA49-E206-16AD6818EEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7743825" y="1476375"/>
+          <a:ext cx="4114800" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>52723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE04858-A23D-08AA-BA14-6F8AC82A21F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698046" y="5791201"/>
+          <a:ext cx="11317061" cy="5691522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020A7AA9-02A6-9218-F7B8-374898424A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="4133850"/>
+          <a:ext cx="4086225" cy="6819900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257171BF-2BBC-9BFC-6014-29B68B7C3AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="1609725"/>
+          <a:ext cx="3028950" cy="9334500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86889D55-5E2C-6F94-7A49-FDDAD1E84D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3283324" y="10152529"/>
+          <a:ext cx="145676" cy="7664824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A92C804-17D4-42AA-B854-964C95F5E6BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3417794" y="10623176"/>
+          <a:ext cx="168088" cy="7384677"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CBC432-DB4F-8A69-A804-5C9D58E7ECC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3608294" y="11116235"/>
+          <a:ext cx="268941" cy="6499412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E71FB4-C925-F7DC-0037-D9AE6EC98225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4684059" y="3978088"/>
+          <a:ext cx="6051176" cy="2644588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F60142-95BA-B258-2368-2A85CA136AB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4291853" y="17671676"/>
+          <a:ext cx="4213412" cy="717177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1246,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:S139"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
@@ -1784,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB4451-9FDF-4CEE-93B1-D1BDB7125C3E}">
   <dimension ref="A3:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,10 +2619,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA13E3DA-3B48-4BFF-A04C-72AA6128C594}">
-  <dimension ref="A3:Q74"/>
+  <dimension ref="A3:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,114 +3007,44 @@
       <c r="B55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
       <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
       <c r="M61" s="6"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C62" s="9"/>
@@ -2338,7 +3059,7 @@
       <c r="L62" s="9"/>
       <c r="M62" s="10"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>56</v>
       </c>
@@ -2356,153 +3077,40 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="4"/>
-      <c r="Q65" s="14"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
       <c r="P66" s="6"/>
-      <c r="Q66" s="14"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
       <c r="P67" s="6"/>
-      <c r="Q67" s="14"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
       <c r="P68" s="6"/>
-      <c r="Q68" s="14"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
       <c r="P69" s="6"/>
-      <c r="Q69" s="14"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
       <c r="P70" s="6"/>
-      <c r="Q70" s="14"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
       <c r="P71" s="6"/>
-      <c r="Q71" s="14"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="14"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
       <c r="P73" s="6"/>
-      <c r="Q73" s="14"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2518,7 +3126,1454 @@
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="10"/>
-      <c r="Q74" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38C079-6877-4B4A-A623-D287188FE0EB}">
+  <dimension ref="A4:Y135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S109" sqref="S109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="10"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="E72" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="E73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="6"/>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="D76" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="6"/>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="D77" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="D78" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" s="6"/>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="10"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="N91" t="s">
+        <v>6</v>
+      </c>
+      <c r="O91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="M92" s="6"/>
+      <c r="O92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B93" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M93" s="6"/>
+      <c r="O93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B94" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M94" s="6"/>
+      <c r="O94" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B95" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="10"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="4"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O97" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="6"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="6"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="4"/>
+      <c r="O99" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="10"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="M100" s="6"/>
+      <c r="O100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="4"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B101" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M101" s="6"/>
+      <c r="O101" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="6"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B102" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M102" s="6"/>
+      <c r="O102" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="6"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B103" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="10"/>
+      <c r="O103" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="10"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="4"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M115" s="6"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B117" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B118" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B119" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="10"/>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="4"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="6"/>
+      <c r="O124" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="4"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B125" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="6"/>
+      <c r="N125" t="s">
+        <v>6</v>
+      </c>
+      <c r="O125" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="16"/>
+      <c r="V125" s="16"/>
+      <c r="W125" s="16"/>
+      <c r="X125" s="16"/>
+      <c r="Y125" s="6"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B126" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="6"/>
+      <c r="N126" t="s">
+        <v>6</v>
+      </c>
+      <c r="O126" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="16"/>
+      <c r="V126" s="16"/>
+      <c r="W126" s="16"/>
+      <c r="X126" s="16"/>
+      <c r="Y126" s="6"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B127" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="10"/>
+      <c r="N127" t="s">
+        <v>6</v>
+      </c>
+      <c r="O127" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="9"/>
+      <c r="Y127" s="10"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="4"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B133" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/3.Gradle-under-the-hood.xlsx
+++ b/me/3.Gradle-under-the-hood.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919B962-D68A-42D8-B595-D5C059686539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB9E96C-5354-427D-BD4D-97A5D7837850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gradle Object Model" sheetId="1" r:id="rId1"/>
     <sheet name="Gradle Lifecycle" sheetId="2" r:id="rId2"/>
     <sheet name="Gradle Initialization Phase" sheetId="3" r:id="rId3"/>
     <sheet name="GradleObjectModeAndGradleObject" sheetId="4" r:id="rId4"/>
+    <sheet name="Project object" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="127">
   <si>
     <t>構成</t>
   </si>
@@ -486,6 +487,85 @@
   </si>
   <si>
     <t>$settings.gradle.gradleUserHomeDir</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; build.gradle: $gradle.gradleVersion"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; build.gradle: $gradle.gradleHomeDir"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; build.gradle: $gradle.gradleUserHomeDir"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; build.gradle: $buildFile"</t>
+  </si>
+  <si>
+    <t>logger.info "&gt;&gt;&gt; build.gradle: ${relativePath(buildFile)}"</t>
+  </si>
+  <si>
+    <t>logger.info """</t>
+  </si>
+  <si>
+    <t>******************************************************************************</t>
+  </si>
+  <si>
+    <t>Welcome to Gradle $gradle.gradleVersion - http://www.gradle.org</t>
+  </si>
+  <si>
+    <t>Gradle home is set to: $gradle.gradleHomeDir</t>
+  </si>
+  <si>
+    <t>Gradle user directory is set to: $gradle.gradleUserHomeDir</t>
+  </si>
+  <si>
+    <t>Base directory: $projectDir</t>
+  </si>
+  <si>
+    <t>Running script  ${relativePath(buildFile)}</t>
+  </si>
+  <si>
+    <t>"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>$project.buildFile</t>
+  </si>
+  <si>
+    <t>${project.relativePath(project.buildFile)}</t>
+  </si>
+  <si>
+    <t>Multi line</t>
+  </si>
+  <si>
+    <r>
+      <t>https://docs.gradle.org/4.3.1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>javadoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/org/gradle/api/Project.html</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -614,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -632,6 +712,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1772,6 +1853,210 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CD9635-44D9-0D0B-95B0-83E1C5EB479D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="709893" y="857250"/>
+          <a:ext cx="11033872" cy="3425414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>13345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505089BD-8BB0-29E7-4C52-7856B90435B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705972" y="13996146"/>
+          <a:ext cx="10992968" cy="5448199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34080633-6117-2BE0-5655-91BB5BCAC946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2498912" y="11217088"/>
+          <a:ext cx="1344706" cy="6981265"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647C85E6-A1BC-5ED2-AC32-1249C6C598F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913529" y="11575676"/>
+          <a:ext cx="1199030" cy="6510618"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2575,7 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB4451-9FDF-4CEE-93B1-D1BDB7125C3E}">
   <dimension ref="A3:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
@@ -2621,7 +2906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA13E3DA-3B48-4BFF-A04C-72AA6128C594}">
   <dimension ref="A3:P74"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -3138,8 +3423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A38C079-6877-4B4A-A623-D287188FE0EB}">
   <dimension ref="A4:Y135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S109" sqref="S109"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96:O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,653 +3506,126 @@
       <c r="B30" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
       <c r="T30" s="6"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
       <c r="T32" s="6"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
       <c r="T33" s="6"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
       <c r="T34" s="6"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
       <c r="T35" s="6"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
       <c r="T36" s="6"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
       <c r="T38" s="6"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
       <c r="T39" s="6"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
       <c r="T40" s="6"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
       <c r="T41" s="6"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
       <c r="T42" s="6"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
       <c r="T43" s="6"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
       <c r="T44" s="6"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
       <c r="T45" s="6"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
       <c r="T46" s="6"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
       <c r="T48" s="6"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
       <c r="T50" s="6"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
       <c r="T51" s="6"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
       <c r="T52" s="6"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
       <c r="T53" s="6"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
       <c r="T54" s="6"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
       <c r="T55" s="6"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
       <c r="T56" s="6"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
       <c r="T57" s="6"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
       <c r="T58" s="6"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
       <c r="T59" s="6"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
       <c r="T60" s="6"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -4167,11 +3925,6 @@
       <c r="O97" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="R97" s="16"/>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
       <c r="U97" s="6"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -4181,11 +3934,6 @@
       <c r="O98" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
       <c r="U98" s="6"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -4234,11 +3982,6 @@
       <c r="O101" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
       <c r="U101" s="6"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -4249,11 +3992,6 @@
       <c r="O102" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="16"/>
-      <c r="R102" s="16"/>
-      <c r="S102" s="16"/>
-      <c r="T102" s="16"/>
       <c r="U102" s="6"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -4401,16 +4139,6 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
       <c r="M124" s="6"/>
       <c r="O124" s="2" t="s">
         <v>103</v>
@@ -4430,16 +4158,6 @@
       <c r="B125" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
       <c r="M125" s="6"/>
       <c r="N125" t="s">
         <v>6</v>
@@ -4447,31 +4165,12 @@
       <c r="O125" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P125" s="16"/>
-      <c r="Q125" s="16"/>
-      <c r="R125" s="16"/>
-      <c r="S125" s="16"/>
-      <c r="T125" s="16"/>
-      <c r="U125" s="16"/>
-      <c r="V125" s="16"/>
-      <c r="W125" s="16"/>
-      <c r="X125" s="16"/>
       <c r="Y125" s="6"/>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
       <c r="M126" s="6"/>
       <c r="N126" t="s">
         <v>6</v>
@@ -4479,15 +4178,6 @@
       <c r="O126" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="16"/>
-      <c r="S126" s="16"/>
-      <c r="T126" s="16"/>
-      <c r="U126" s="16"/>
-      <c r="V126" s="16"/>
-      <c r="W126" s="16"/>
-      <c r="X126" s="16"/>
       <c r="Y126" s="6"/>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
@@ -4580,4 +4270,1074 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BB5420-F821-4F40-BC61-EF9387B3F15D}">
+  <dimension ref="A3:U73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="E34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="E35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="6"/>
+      <c r="N59" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="4"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="6"/>
+      <c r="O60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="6"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="6"/>
+      <c r="O61" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="10"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="6"/>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="6"/>
+      <c r="N63" t="s">
+        <v>6</v>
+      </c>
+      <c r="O63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="6"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="6"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="10"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>